--- a/docs/odh/shr-core-Ingredient-model.xlsx
+++ b/docs/odh/shr-core-Ingredient-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="50">
   <si>
     <t>Path</t>
   </si>
@@ -144,24 +144,20 @@
   </si>
   <si>
     <t>Coding {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Substance-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication-model]]}</t>
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Substance-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Medication-model]]}</t>
   </si>
   <si>
     <t>A code or substance reference identifying the ingredient.</t>
   </si>
   <si>
-    <t>shr-core-Ingredient-model.ingredientAmount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Ratio-model {[]} {[]}
+    <t>shr-core-Ingredient-model.ingredientStrength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Ratio-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>The amount of an ingredient in a mixture, as a ratio. For example, 250 mg per tablet is expressed as a ratio where the numerator is 250mg and the denominator is 1 tablet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0456603
-</t>
+    <t>Specifies how many (or how much) of the items there are in this Medication. For example, 250 mg per tablet. This is expressed as a ratio where the numerator is 250mg and the denominator is 1 tablet.</t>
   </si>
   <si>
     <t>shr-core-Ingredient-model.isActiveIngredient</t>
@@ -320,7 +316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -339,7 +335,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="153.8515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="180.4375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -354,7 +350,7 @@
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
@@ -732,7 +728,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -764,7 +760,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -787,13 +783,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -844,7 +840,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
